--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BSoFPtiT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\fuels\BSoFPtiT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4341F104-6CFC-4053-8AEE-CF9CB1CE144B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFAE2C3-49C8-43E4-BE49-5A62A346FB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{7CF39A5E-DFC7-46A6-BB22-6455CF62E28A}"/>
+    <workbookView xWindow="3000" yWindow="15" windowWidth="15518" windowHeight="10185" activeTab="2" xr2:uid="{7CF39A5E-DFC7-46A6-BB22-6455CF62E28A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 59" sheetId="4" r:id="rId2"/>
-    <sheet name="BSoFPtiT-carbontax" sheetId="5" r:id="rId3"/>
-    <sheet name="BSoFPtiT-othertaxes" sheetId="3" r:id="rId4"/>
+    <sheet name="BSoFPtiT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Source:</t>
   </si>
@@ -336,18 +335,6 @@
   </si>
   <si>
     <t>Modeling System run ref2020.d112119a.  Projections:  EIA, AEO2020 National Energy Modeling System run ref2020.d112119a.</t>
-  </si>
-  <si>
-    <t>Carbon Tax Notes</t>
-  </si>
-  <si>
-    <t>The BAU tax amount must be split between BAU carbon tax and BAU other taxes (such as sales or</t>
-  </si>
-  <si>
-    <t>excise taxes) in regions which possess a BAU carbon tax.  In a region without a BAU carbon tax,</t>
-  </si>
-  <si>
-    <t>the carbon tax blue tab should contain only zeroes.</t>
   </si>
 </sst>
 </file>
@@ -358,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,14 +543,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,7 +998,7 @@
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1033,6 +1012,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="13" applyFont="1"/>
@@ -1066,10 +1048,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="32" builtinId="30" customBuiltin="1"/>
@@ -1463,22 +1441,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="79.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="79.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,52 +1466,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1547,68 +1527,48 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1630,3470 +1590,3470 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="13">
         <v>2019</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="13">
         <v>2020</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="13">
         <v>2021</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="13">
         <v>2022</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="13">
         <v>2023</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="13">
         <v>2024</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="13">
         <v>2025</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="13">
         <v>2026</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="13">
         <v>2027</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="13">
         <v>2028</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="13">
         <v>2029</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="13">
         <v>2030</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="13">
         <v>2031</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="13">
         <v>2032</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="13">
         <v>2033</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="13">
         <v>2034</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="13">
         <v>2035</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="13">
         <v>2036</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="13">
         <v>2037</v>
       </c>
-      <c r="V1" s="12">
+      <c r="V1" s="13">
         <v>2038</v>
       </c>
-      <c r="W1" s="12">
+      <c r="W1" s="13">
         <v>2039</v>
       </c>
-      <c r="X1" s="12">
+      <c r="X1" s="13">
         <v>2040</v>
       </c>
-      <c r="Y1" s="12">
+      <c r="Y1" s="13">
         <v>2041</v>
       </c>
-      <c r="Z1" s="12">
+      <c r="Z1" s="13">
         <v>2042</v>
       </c>
-      <c r="AA1" s="12">
+      <c r="AA1" s="13">
         <v>2043</v>
       </c>
-      <c r="AB1" s="12">
+      <c r="AB1" s="13">
         <v>2044</v>
       </c>
-      <c r="AC1" s="12">
+      <c r="AC1" s="13">
         <v>2045</v>
       </c>
-      <c r="AD1" s="12">
+      <c r="AD1" s="13">
         <v>2046</v>
       </c>
-      <c r="AE1" s="12">
+      <c r="AE1" s="13">
         <v>2047</v>
       </c>
-      <c r="AF1" s="12">
+      <c r="AF1" s="13">
         <v>2048</v>
       </c>
-      <c r="AG1" s="12">
+      <c r="AG1" s="13">
         <v>2049</v>
       </c>
-      <c r="AH1" s="12">
+      <c r="AH1" s="13">
         <v>2050</v>
       </c>
-      <c r="AI1" s="10"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="23" t="s">
+      <c r="AI1" s="11"/>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+    </row>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-    </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="23" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-    </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+    </row>
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="23" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+    </row>
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+    </row>
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AC12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AD12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AE12" s="15" t="s">
+      <c r="AE12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="15" t="s">
+      <c r="AG12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AH12" s="15" t="s">
+      <c r="AH12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI12" s="15" t="s">
+      <c r="AI12" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>2019</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>2020</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>2021</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="13">
         <v>2022</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>2023</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="13">
         <v>2024</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <v>2025</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="13">
         <v>2026</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="13">
         <v>2027</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="13">
         <v>2028</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="13">
         <v>2029</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <v>2030</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="13">
         <v>2031</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="13">
         <v>2032</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="13">
         <v>2033</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="13">
         <v>2034</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="13">
         <v>2035</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="13">
         <v>2036</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="13">
         <v>2037</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="13">
         <v>2038</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="13">
         <v>2039</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="13">
         <v>2040</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="13">
         <v>2041</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="13">
         <v>2042</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="13">
         <v>2043</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="13">
         <v>2044</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="13">
         <v>2045</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="13">
         <v>2046</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="13">
         <v>2047</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="13">
         <v>2048</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="13">
         <v>2049</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="13">
         <v>2050</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="13">
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16" t="s">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+    </row>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>3.0399669999999999</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>2.9344049999999999</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>2.9493360000000002</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>2.9949479999999999</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>3.0121190000000002</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="19">
         <v>3.0663870000000002</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>3.0845769999999999</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="19">
         <v>3.1412900000000001</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="19">
         <v>3.1493359999999999</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="19">
         <v>3.1974529999999999</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="19">
         <v>3.2269950000000001</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="19">
         <v>3.2938559999999999</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="19">
         <v>3.3310569999999999</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="19">
         <v>3.3550689999999999</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="19">
         <v>3.4091459999999998</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="19">
         <v>3.4365450000000002</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="19">
         <v>3.4674489999999998</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="19">
         <v>3.5024649999999999</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="19">
         <v>3.527104</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="19">
         <v>3.5561530000000001</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="19">
         <v>3.5872730000000002</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="19">
         <v>3.5866609999999999</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="19">
         <v>3.6097619999999999</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="19">
         <v>3.662671</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AA16" s="19">
         <v>3.6861480000000002</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AB16" s="19">
         <v>3.7137150000000001</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="19">
         <v>3.7645810000000002</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="19">
         <v>3.7666650000000002</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AE16" s="19">
         <v>3.8030430000000002</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16" s="19">
         <v>3.8359009999999998</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AG16" s="19">
         <v>3.8594680000000001</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="19">
         <v>3.8806039999999999</v>
       </c>
-      <c r="AI16" s="19">
+      <c r="AI16" s="20">
         <v>7.9070000000000008E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>0.241841</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>0.236072</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>0.23036100000000001</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>0.22468099999999999</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>0.21934100000000001</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="19">
         <v>0.214445</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="19">
         <v>0.20968000000000001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="19">
         <v>0.20488899999999999</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="19">
         <v>0.20011200000000001</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="19">
         <v>0.19541</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="19">
         <v>0.19083700000000001</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="19">
         <v>0.18646399999999999</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="19">
         <v>0.18235599999999999</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="19">
         <v>0.178392</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="19">
         <v>0.17453199999999999</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="19">
         <v>0.17081499999999999</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="19">
         <v>0.16718</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="19">
         <v>0.163572</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="19">
         <v>0.160054</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="19">
         <v>0.15651799999999999</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="19">
         <v>0.153115</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="19">
         <v>0.14973400000000001</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="19">
         <v>0.146423</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="19">
         <v>0.14314199999999999</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="19">
         <v>0.13997200000000001</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AB17" s="19">
         <v>0.136738</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="19">
         <v>0.133577</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="19">
         <v>0.13047300000000001</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AE17" s="19">
         <v>0.12743199999999999</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17" s="19">
         <v>0.12438299999999999</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AG17" s="19">
         <v>0.121369</v>
       </c>
-      <c r="AH17" s="18">
+      <c r="AH17" s="19">
         <v>0.118451</v>
       </c>
-      <c r="AI17" s="19">
+      <c r="AI17" s="20">
         <v>-2.2762000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>0.34922799999999998</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>0.349213</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>0.352269</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>0.35440300000000002</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>0.35371599999999997</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="19">
         <v>0.35350500000000001</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>0.35338999999999998</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="19">
         <v>0.35352</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="19">
         <v>0.35360799999999998</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="19">
         <v>0.35381600000000002</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="19">
         <v>0.35378900000000002</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="19">
         <v>0.35377199999999998</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="19">
         <v>0.35384199999999999</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="19">
         <v>0.353827</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="19">
         <v>0.35381400000000002</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="19">
         <v>0.35378500000000002</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="19">
         <v>0.35383500000000001</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="19">
         <v>0.35396899999999998</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="19">
         <v>0.35411399999999998</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="19">
         <v>0.35413099999999997</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="19">
         <v>0.35425600000000002</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="19">
         <v>0.35418300000000003</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="19">
         <v>0.35419600000000001</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="19">
         <v>0.35428300000000001</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="19">
         <v>0.35444599999999998</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="19">
         <v>0.35439700000000002</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="19">
         <v>0.35446800000000001</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="19">
         <v>0.35448299999999999</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AE18" s="19">
         <v>0.354709</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18" s="19">
         <v>0.35484599999999999</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AG18" s="19">
         <v>0.35492099999999999</v>
       </c>
-      <c r="AH18" s="18">
+      <c r="AH18" s="19">
         <v>0.354931</v>
       </c>
-      <c r="AI18" s="19">
+      <c r="AI18" s="20">
         <v>5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>1.0721E-2</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>1.1242E-2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="19">
         <v>1.172E-2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>1.2029E-2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1.1764E-2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>1.1653E-2</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <v>1.1585E-2</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="19">
         <v>1.1594999999999999E-2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="19">
         <v>1.1575E-2</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="19">
         <v>1.1604E-2</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="19">
         <v>1.1560000000000001E-2</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="19">
         <v>5.2753000000000001E-2</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="19">
         <v>5.2711000000000001E-2</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="19">
         <v>5.2644999999999997E-2</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="19">
         <v>5.8391999999999999E-2</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="19">
         <v>5.8333000000000003E-2</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="19">
         <v>5.8340999999999997E-2</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="19">
         <v>5.8587E-2</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="19">
         <v>5.8647999999999999E-2</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="19">
         <v>5.8769000000000002E-2</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="19">
         <v>5.8872000000000001E-2</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="19">
         <v>5.8927E-2</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="19">
         <v>5.8991000000000002E-2</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="19">
         <v>5.9198000000000001E-2</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AA19" s="19">
         <v>5.9381999999999997E-2</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="19">
         <v>5.9544E-2</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="19">
         <v>5.9729999999999998E-2</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="19">
         <v>5.9951999999999998E-2</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="19">
         <v>6.0282000000000002E-2</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="19">
         <v>6.0565000000000001E-2</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="19">
         <v>6.0838000000000003E-2</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="19">
         <v>6.1107000000000002E-2</v>
       </c>
-      <c r="AI19" s="19">
+      <c r="AI19" s="20">
         <v>5.7747E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>0.45923000000000003</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>0.45921000000000001</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <v>0.46189999999999998</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>0.46362399999999998</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>0.46290599999999998</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <v>0.46270899999999998</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="19">
         <v>0.462615</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="19">
         <v>0.46277800000000002</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="19">
         <v>0.46285500000000002</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="19">
         <v>0.46306900000000001</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="19">
         <v>0.46302500000000002</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="19">
         <v>0.46295500000000001</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="19">
         <v>0.463028</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="19">
         <v>0.46301799999999999</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="19">
         <v>0.46301599999999998</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="19">
         <v>0.463009</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="19">
         <v>0.46307900000000002</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="19">
         <v>0.46323999999999999</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="19">
         <v>0.46342100000000003</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="19">
         <v>0.46343699999999999</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="19">
         <v>0.46359099999999998</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="19">
         <v>0.46351799999999999</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="19">
         <v>0.46356000000000003</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="19">
         <v>0.46368399999999999</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="19">
         <v>0.46391399999999999</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="19">
         <v>0.46387099999999998</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="19">
         <v>0.46397300000000002</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="19">
         <v>0.46402700000000002</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AE20" s="19">
         <v>0.46432899999999999</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="19">
         <v>0.46451700000000001</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="19">
         <v>0.46462900000000001</v>
       </c>
-      <c r="AH20" s="18">
+      <c r="AH20" s="19">
         <v>0.46466200000000002</v>
       </c>
-      <c r="AI20" s="19">
+      <c r="AI20" s="20">
         <v>3.79E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>1.9789460000000001</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>1.878668</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="19">
         <v>1.893087</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>1.9402109999999999</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1.9643919999999999</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <v>2.024076</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="19">
         <v>2.0473059999999998</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="19">
         <v>2.1085069999999999</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="19">
         <v>2.1211869999999999</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="19">
         <v>2.1735540000000002</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="19">
         <v>2.2077840000000002</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="19">
         <v>2.237911</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="19">
         <v>2.2791199999999998</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="19">
         <v>2.3071869999999999</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="19">
         <v>2.359391</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="19">
         <v>2.390603</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="19">
         <v>2.4250129999999999</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="19">
         <v>2.463098</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="19">
         <v>2.4908670000000002</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="19">
         <v>2.5232990000000002</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="19">
         <v>2.5574379999999999</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="19">
         <v>2.5602999999999998</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="19">
         <v>2.586592</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="19">
         <v>2.6423649999999999</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="19">
         <v>2.668434</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="19">
         <v>2.699166</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="19">
         <v>2.752834</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="19">
         <v>2.7577310000000002</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="19">
         <v>2.7962920000000002</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="19">
         <v>2.8315899999999998</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AG21" s="19">
         <v>2.8577110000000001</v>
       </c>
-      <c r="AH21" s="18">
+      <c r="AH21" s="19">
         <v>2.881453</v>
       </c>
-      <c r="AI21" s="19">
+      <c r="AI21" s="20">
         <v>1.2194E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>2.6656010000000001</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="19">
         <v>2.6399789999999999</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>2.6431900000000002</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>2.6441300000000001</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2.633867</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <v>2.5992510000000002</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="19">
         <v>2.6286719999999999</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="19">
         <v>2.650331</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="19">
         <v>2.682016</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="19">
         <v>2.6949529999999999</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="19">
         <v>2.7298939999999998</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="19">
         <v>2.8137409999999998</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="19">
         <v>2.8327450000000001</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="19">
         <v>2.8571800000000001</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="19">
         <v>2.907378</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="19">
         <v>2.9532949999999998</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="19">
         <v>2.9834559999999999</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="19">
         <v>3.0186090000000001</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="19">
         <v>3.0274169999999998</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="19">
         <v>3.060073</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="19">
         <v>3.1005470000000002</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="19">
         <v>3.11111</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24" s="19">
         <v>3.1328849999999999</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="19">
         <v>3.1807620000000001</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24" s="19">
         <v>3.2061389999999999</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AB24" s="19">
         <v>3.230979</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="19">
         <v>3.2721650000000002</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="19">
         <v>3.2819690000000001</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AE24" s="19">
         <v>3.338524</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24" s="19">
         <v>3.3765939999999999</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AG24" s="19">
         <v>3.405497</v>
       </c>
-      <c r="AH24" s="18">
+      <c r="AH24" s="19">
         <v>3.430088</v>
       </c>
-      <c r="AI24" s="19">
+      <c r="AI24" s="20">
         <v>8.1670000000000006E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>0.18388599999999999</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="19">
         <v>0.17949599999999999</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="19">
         <v>0.17517199999999999</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>0.17091100000000001</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>0.16687199999999999</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="19">
         <v>0.16323499999999999</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="19">
         <v>0.15967200000000001</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="19">
         <v>0.155976</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="19">
         <v>0.15229400000000001</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="19">
         <v>0.14871999999999999</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="19">
         <v>0.14521999999999999</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="19">
         <v>0.141877</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="19">
         <v>0.138735</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="19">
         <v>0.13569400000000001</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="19">
         <v>0.13272400000000001</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="19">
         <v>0.12989800000000001</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="19">
         <v>0.12709999999999999</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25" s="19">
         <v>0.12436800000000001</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="19">
         <v>0.121668</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="19">
         <v>0.119008</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="19">
         <v>0.116407</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="19">
         <v>0.11386400000000001</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25" s="19">
         <v>0.111348</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="19">
         <v>0.108878</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25" s="19">
         <v>0.106437</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="19">
         <v>0.104045</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="19">
         <v>0.101673</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="19">
         <v>9.9340999999999999E-2</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="19">
         <v>9.7019999999999995E-2</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="19">
         <v>9.4728000000000007E-2</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="19">
         <v>9.2473E-2</v>
       </c>
-      <c r="AH25" s="18">
+      <c r="AH25" s="19">
         <v>9.0249999999999997E-2</v>
       </c>
-      <c r="AI25" s="19">
+      <c r="AI25" s="20">
         <v>-2.2697999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>0.36077300000000001</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="19">
         <v>0.360487</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="19">
         <v>0.36016599999999999</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>0.35971700000000001</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>0.35897200000000001</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="19">
         <v>0.35766900000000001</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="19">
         <v>0.35686800000000002</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="19">
         <v>0.35646600000000001</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="19">
         <v>0.356242</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="19">
         <v>0.35585899999999998</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="19">
         <v>0.35565799999999997</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="19">
         <v>0.355466</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="19">
         <v>0.35510599999999998</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="19">
         <v>0.35477500000000001</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="19">
         <v>0.35464099999999998</v>
       </c>
-      <c r="R26" s="18">
+      <c r="R26" s="19">
         <v>0.35454000000000002</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="19">
         <v>0.35423399999999999</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="19">
         <v>0.35435499999999998</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="19">
         <v>0.35418300000000003</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="19">
         <v>0.35424800000000001</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="19">
         <v>0.35441899999999998</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="19">
         <v>0.35428300000000001</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="19">
         <v>0.35426099999999999</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="19">
         <v>0.35450599999999999</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="19">
         <v>0.35452400000000001</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="19">
         <v>0.35455399999999998</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="19">
         <v>0.35473500000000002</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="19">
         <v>0.35460000000000003</v>
       </c>
-      <c r="AE26" s="18">
+      <c r="AE26" s="19">
         <v>0.35494300000000001</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26" s="19">
         <v>0.35508499999999998</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AG26" s="19">
         <v>0.355157</v>
       </c>
-      <c r="AH26" s="18">
+      <c r="AH26" s="19">
         <v>0.35515099999999999</v>
       </c>
-      <c r="AI26" s="19">
+      <c r="AI26" s="20">
         <v>-5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>1.2562E-2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="19">
         <v>1.3194000000000001E-2</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="19">
         <v>1.3109000000000001E-2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>1.299E-2</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1.2782E-2</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <v>1.2429000000000001E-2</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="19">
         <v>1.2034E-2</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="19">
         <v>1.1851E-2</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="19">
         <v>1.17E-2</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="19">
         <v>1.1556E-2</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="19">
         <v>1.1409000000000001E-2</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="19">
         <v>5.144E-2</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="19">
         <v>5.0772999999999999E-2</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="19">
         <v>5.0069000000000002E-2</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="19">
         <v>5.4857000000000003E-2</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="19">
         <v>5.4107000000000002E-2</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="19">
         <v>5.3328E-2</v>
       </c>
-      <c r="T27" s="18">
+      <c r="T27" s="19">
         <v>5.3282999999999997E-2</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="19">
         <v>5.3226000000000002E-2</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="19">
         <v>5.3178000000000003E-2</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="19">
         <v>5.3165999999999998E-2</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="19">
         <v>5.3152999999999999E-2</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Y27" s="19">
         <v>5.3124999999999999E-2</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="19">
         <v>5.3104999999999999E-2</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AA27" s="19">
         <v>5.3092E-2</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="19">
         <v>5.3109999999999997E-2</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AC27" s="19">
         <v>5.3116999999999998E-2</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="19">
         <v>5.3130999999999998E-2</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AE27" s="19">
         <v>5.3180999999999999E-2</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27" s="19">
         <v>5.3196E-2</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AG27" s="19">
         <v>5.3247000000000003E-2</v>
       </c>
-      <c r="AH27" s="18">
+      <c r="AH27" s="19">
         <v>5.3221999999999998E-2</v>
       </c>
-      <c r="AI27" s="19">
+      <c r="AI27" s="20">
         <v>4.7676000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="19">
         <v>0.27744099999999999</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="19">
         <v>0.27742800000000001</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="19">
         <v>0.27726400000000001</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>0.27699099999999999</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>0.27649699999999999</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <v>0.27569199999999999</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="19">
         <v>0.27477800000000002</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="19">
         <v>0.27430500000000002</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="19">
         <v>0.27390399999999998</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="19">
         <v>0.27351999999999999</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="19">
         <v>0.27312399999999998</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="19">
         <v>0.27265899999999998</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="19">
         <v>0.272258</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="19">
         <v>0.271839</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="19">
         <v>0.27142100000000002</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="19">
         <v>0.271013</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="19">
         <v>0.27057900000000001</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="19">
         <v>0.27049200000000001</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="19">
         <v>0.27039000000000002</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="19">
         <v>0.27028099999999999</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="19">
         <v>0.27020300000000003</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="19">
         <v>0.27011099999999999</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="Y28" s="19">
         <v>0.27002399999999999</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="19">
         <v>0.26994600000000002</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AA28" s="19">
         <v>0.26986300000000002</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="19">
         <v>0.26979599999999998</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="19">
         <v>0.26972099999999999</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="19">
         <v>0.269646</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AE28" s="19">
         <v>0.26958799999999999</v>
       </c>
-      <c r="AF28" s="18">
+      <c r="AF28" s="19">
         <v>0.26951000000000003</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AG28" s="19">
         <v>0.26944899999999999</v>
       </c>
-      <c r="AH28" s="18">
+      <c r="AH28" s="19">
         <v>0.26937499999999998</v>
       </c>
-      <c r="AI28" s="19">
+      <c r="AI28" s="20">
         <v>-9.5100000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>1.8309390000000001</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="19">
         <v>1.8093760000000001</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="19">
         <v>1.8174790000000001</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>1.8235220000000001</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1.818743</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="19">
         <v>1.790225</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="19">
         <v>1.8253189999999999</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="19">
         <v>1.8517319999999999</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="19">
         <v>1.887875</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="19">
         <v>1.9052979999999999</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="19">
         <v>1.944483</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="19">
         <v>1.992299</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="19">
         <v>2.015873</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="19">
         <v>2.0448029999999999</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="19">
         <v>2.0937350000000001</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="19">
         <v>2.1437379999999999</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="19">
         <v>2.1782140000000001</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="19">
         <v>2.2161110000000002</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="19">
         <v>2.2279499999999999</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="19">
         <v>2.2633580000000002</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="19">
         <v>2.3063530000000001</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="19">
         <v>2.3196979999999998</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="Y29" s="19">
         <v>2.344128</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="19">
         <v>2.394326</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AA29" s="19">
         <v>2.4222239999999999</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="19">
         <v>2.4494739999999999</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AC29" s="19">
         <v>2.492918</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="19">
         <v>2.5052509999999999</v>
       </c>
-      <c r="AE29" s="18">
+      <c r="AE29" s="19">
         <v>2.5637919999999998</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29" s="19">
         <v>2.6040740000000002</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29" s="19">
         <v>2.6351710000000002</v>
       </c>
-      <c r="AH29" s="18">
+      <c r="AH29" s="19">
         <v>2.6620910000000002</v>
       </c>
-      <c r="AI29" s="19">
+      <c r="AI29" s="20">
         <v>1.2147E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>1.976542</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>1.9506760000000001</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>1.9534389999999999</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>1.981519</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1.995884</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <v>2.0495670000000001</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="19">
         <v>2.0593270000000001</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="19">
         <v>2.1209150000000001</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="19">
         <v>2.124838</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="19">
         <v>2.1889780000000001</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="19">
         <v>2.217425</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="19">
         <v>2.2497509999999998</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="19">
         <v>2.2967339999999998</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="19">
         <v>2.3203019999999999</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="19">
         <v>2.373818</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="19">
         <v>2.41222</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="19">
         <v>2.448677</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="19">
         <v>2.4817170000000002</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="19">
         <v>2.5142790000000002</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="19">
         <v>2.5420569999999998</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="19">
         <v>2.5794169999999998</v>
       </c>
-      <c r="X32" s="18">
+      <c r="X32" s="19">
         <v>2.5917219999999999</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="Y32" s="19">
         <v>2.6257769999999998</v>
       </c>
-      <c r="Z32" s="18">
+      <c r="Z32" s="19">
         <v>2.6776680000000002</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AA32" s="19">
         <v>2.7055099999999999</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="19">
         <v>2.737298</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="19">
         <v>2.7945739999999999</v>
       </c>
-      <c r="AD32" s="18">
+      <c r="AD32" s="19">
         <v>2.8016510000000001</v>
       </c>
-      <c r="AE32" s="18">
+      <c r="AE32" s="19">
         <v>2.8586710000000002</v>
       </c>
-      <c r="AF32" s="18">
+      <c r="AF32" s="19">
         <v>2.905011</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AG32" s="19">
         <v>2.9385020000000002</v>
       </c>
-      <c r="AH32" s="18">
+      <c r="AH32" s="19">
         <v>2.9509319999999999</v>
       </c>
-      <c r="AI32" s="19">
+      <c r="AI32" s="20">
         <v>1.3011999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="19">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="19">
         <v>4.2171E-2</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="19">
         <v>4.1158E-2</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>4.0150999999999999E-2</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>3.9197000000000003E-2</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="19">
         <v>3.8323000000000003E-2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="19">
         <v>3.7472999999999999E-2</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="19">
         <v>3.6615000000000002E-2</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="19">
         <v>3.5758999999999999E-2</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="19">
         <v>3.4921000000000001E-2</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="19">
         <v>3.4106999999999998E-2</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="19">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="19">
         <v>3.2592999999999997E-2</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="19">
         <v>3.1885999999999998E-2</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="19">
         <v>3.1195000000000001E-2</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="19">
         <v>3.0532E-2</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="19">
         <v>2.9881000000000001E-2</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="19">
         <v>2.9236999999999999E-2</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="19">
         <v>2.8601999999999999E-2</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="19">
         <v>2.7976000000000001E-2</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="19">
         <v>2.7362999999999998E-2</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33" s="19">
         <v>2.6765000000000001E-2</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="Y33" s="19">
         <v>2.6172000000000001E-2</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33" s="19">
         <v>2.5585E-2</v>
       </c>
-      <c r="AA33" s="18">
+      <c r="AA33" s="19">
         <v>2.5009E-2</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33" s="19">
         <v>2.444E-2</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AC33" s="19">
         <v>2.3876000000000001E-2</v>
       </c>
-      <c r="AD33" s="18">
+      <c r="AD33" s="19">
         <v>2.3321999999999999E-2</v>
       </c>
-      <c r="AE33" s="18">
+      <c r="AE33" s="19">
         <v>2.2771E-2</v>
       </c>
-      <c r="AF33" s="18">
+      <c r="AF33" s="19">
         <v>2.2223E-2</v>
       </c>
-      <c r="AG33" s="18">
+      <c r="AG33" s="19">
         <v>2.1683999999999998E-2</v>
       </c>
-      <c r="AH33" s="18">
+      <c r="AH33" s="19">
         <v>2.1166000000000001E-2</v>
       </c>
-      <c r="AI33" s="19">
+      <c r="AI33" s="20">
         <v>-2.2752000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="19">
         <v>7.5786999999999993E-2</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>7.5786999999999993E-2</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="19">
         <v>7.5994000000000006E-2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>7.6207999999999998E-2</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>7.6365000000000002E-2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <v>7.6507000000000006E-2</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="19">
         <v>7.6641000000000001E-2</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="19">
         <v>7.6765E-2</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="19">
         <v>7.6876E-2</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="19">
         <v>7.6991000000000004E-2</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="19">
         <v>7.7107999999999996E-2</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="19">
         <v>7.7219999999999997E-2</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="19">
         <v>7.7326000000000006E-2</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="19">
         <v>7.7431E-2</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="19">
         <v>7.7537999999999996E-2</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="19">
         <v>7.7656000000000003E-2</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S34" s="19">
         <v>7.7773999999999996E-2</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="19">
         <v>7.7889E-2</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="19">
         <v>7.8005000000000005E-2</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="19">
         <v>7.8108999999999998E-2</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="19">
         <v>7.8210000000000002E-2</v>
       </c>
-      <c r="X34" s="18">
+      <c r="X34" s="19">
         <v>7.8312000000000007E-2</v>
       </c>
-      <c r="Y34" s="18">
+      <c r="Y34" s="19">
         <v>7.8409999999999994E-2</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="Z34" s="19">
         <v>7.8519000000000005E-2</v>
       </c>
-      <c r="AA34" s="18">
+      <c r="AA34" s="19">
         <v>7.8632999999999995E-2</v>
       </c>
-      <c r="AB34" s="18">
+      <c r="AB34" s="19">
         <v>7.8744999999999996E-2</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AC34" s="19">
         <v>7.8856999999999997E-2</v>
       </c>
-      <c r="AD34" s="18">
+      <c r="AD34" s="19">
         <v>7.8950999999999993E-2</v>
       </c>
-      <c r="AE34" s="18">
+      <c r="AE34" s="19">
         <v>7.9021999999999995E-2</v>
       </c>
-      <c r="AF34" s="18">
+      <c r="AF34" s="19">
         <v>7.9084000000000002E-2</v>
       </c>
-      <c r="AG34" s="18">
+      <c r="AG34" s="19">
         <v>7.9136999999999999E-2</v>
       </c>
-      <c r="AH34" s="18">
+      <c r="AH34" s="19">
         <v>7.9182000000000002E-2</v>
       </c>
-      <c r="AI34" s="19">
+      <c r="AI34" s="20">
         <v>1.415E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="19">
         <v>2.4610000000000001E-3</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="19">
         <v>2.5839999999999999E-3</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>2.5820000000000001E-3</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>2.5829999999999998E-3</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="19">
         <v>2.5839999999999999E-3</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="19">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="19">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="19">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="19">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="19">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="19">
         <v>1.1847999999999999E-2</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="19">
         <v>1.1851E-2</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="19">
         <v>1.1854999999999999E-2</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="19">
         <v>1.3176E-2</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="19">
         <v>1.3179E-2</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="19">
         <v>1.3184E-2</v>
       </c>
-      <c r="T35" s="18">
+      <c r="T35" s="19">
         <v>1.3188999999999999E-2</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="19">
         <v>1.3194000000000001E-2</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="19">
         <v>1.3199000000000001E-2</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="19">
         <v>1.3205E-2</v>
       </c>
-      <c r="X35" s="18">
+      <c r="X35" s="19">
         <v>1.3213000000000001E-2</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="Y35" s="19">
         <v>1.3221999999999999E-2</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="19">
         <v>1.3228E-2</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AA35" s="19">
         <v>1.3233E-2</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AB35" s="19">
         <v>1.3237000000000001E-2</v>
       </c>
-      <c r="AC35" s="18">
+      <c r="AC35" s="19">
         <v>1.3243E-2</v>
       </c>
-      <c r="AD35" s="18">
+      <c r="AD35" s="19">
         <v>1.3249E-2</v>
       </c>
-      <c r="AE35" s="18">
+      <c r="AE35" s="19">
         <v>1.3252999999999999E-2</v>
       </c>
-      <c r="AF35" s="18">
+      <c r="AF35" s="19">
         <v>1.3254E-2</v>
       </c>
-      <c r="AG35" s="18">
+      <c r="AG35" s="19">
         <v>1.3254999999999999E-2</v>
       </c>
-      <c r="AH35" s="18">
+      <c r="AH35" s="19">
         <v>1.3257E-2</v>
       </c>
-      <c r="AI35" s="19">
+      <c r="AI35" s="20">
         <v>5.5816999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="19">
         <v>1.9788E-2</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>1.9788E-2</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="19">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>1.9834000000000001E-2</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1.9835999999999999E-2</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="19">
         <v>1.9835999999999999E-2</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="19">
         <v>1.9841000000000001E-2</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="19">
         <v>1.9844000000000001E-2</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="19">
         <v>1.9845999999999999E-2</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="19">
         <v>1.9848999999999999E-2</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="19">
         <v>1.9851000000000001E-2</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="19">
         <v>1.9852000000000002E-2</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="19">
         <v>1.9852999999999999E-2</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="19">
         <v>1.9854E-2</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="19">
         <v>1.9855000000000001E-2</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="19">
         <v>1.9858000000000001E-2</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="19">
         <v>1.9859999999999999E-2</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="19">
         <v>1.9862999999999999E-2</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="19">
         <v>1.9865000000000001E-2</v>
       </c>
-      <c r="V36" s="18">
+      <c r="V36" s="19">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="19">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="19">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="Y36" s="18">
+      <c r="Y36" s="19">
         <v>1.9866000000000002E-2</v>
       </c>
-      <c r="Z36" s="18">
+      <c r="Z36" s="19">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="AA36" s="18">
+      <c r="AA36" s="19">
         <v>1.9869000000000001E-2</v>
       </c>
-      <c r="AB36" s="18">
+      <c r="AB36" s="19">
         <v>1.9872000000000001E-2</v>
       </c>
-      <c r="AC36" s="18">
+      <c r="AC36" s="19">
         <v>1.9873999999999999E-2</v>
       </c>
-      <c r="AD36" s="18">
+      <c r="AD36" s="19">
         <v>1.9872999999999998E-2</v>
       </c>
-      <c r="AE36" s="18">
+      <c r="AE36" s="19">
         <v>1.9869999999999999E-2</v>
       </c>
-      <c r="AF36" s="18">
+      <c r="AF36" s="19">
         <v>1.9869000000000001E-2</v>
       </c>
-      <c r="AG36" s="18">
+      <c r="AG36" s="19">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="AH36" s="18">
+      <c r="AH36" s="19">
         <v>1.9866000000000002E-2</v>
       </c>
-      <c r="AI36" s="19">
+      <c r="AI36" s="20">
         <v>1.27E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="19">
         <v>1.835305</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="19">
         <v>1.8103450000000001</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="19">
         <v>1.8138920000000001</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>1.842743</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1.8579030000000001</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="19">
         <v>1.9123159999999999</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="19">
         <v>1.9227879999999999</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="19">
         <v>1.985106</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="19">
         <v>1.9897720000000001</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="19">
         <v>2.0546310000000001</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="19">
         <v>2.0837729999999999</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="19">
         <v>2.1075020000000002</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="19">
         <v>2.1551110000000002</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="19">
         <v>2.1792769999999999</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="19">
         <v>2.2320540000000002</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="19">
         <v>2.2709950000000001</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="19">
         <v>2.3079779999999999</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="19">
         <v>2.3415379999999999</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="19">
         <v>2.3746139999999998</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V37" s="19">
         <v>2.4029060000000002</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="19">
         <v>2.4407719999999999</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X37" s="19">
         <v>2.4535650000000002</v>
       </c>
-      <c r="Y37" s="18">
+      <c r="Y37" s="19">
         <v>2.4881069999999998</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z37" s="19">
         <v>2.5404689999999999</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AA37" s="19">
         <v>2.5687660000000001</v>
       </c>
-      <c r="AB37" s="18">
+      <c r="AB37" s="19">
         <v>2.6010040000000001</v>
       </c>
-      <c r="AC37" s="18">
+      <c r="AC37" s="19">
         <v>2.658725</v>
       </c>
-      <c r="AD37" s="18">
+      <c r="AD37" s="19">
         <v>2.666255</v>
       </c>
-      <c r="AE37" s="18">
+      <c r="AE37" s="19">
         <v>2.7237550000000001</v>
       </c>
-      <c r="AF37" s="18">
+      <c r="AF37" s="19">
         <v>2.770581</v>
       </c>
-      <c r="AG37" s="18">
+      <c r="AG37" s="19">
         <v>2.8045580000000001</v>
       </c>
-      <c r="AH37" s="18">
+      <c r="AH37" s="19">
         <v>2.8174610000000002</v>
       </c>
-      <c r="AI37" s="19">
+      <c r="AI37" s="20">
         <v>1.3923E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="16" t="s">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="11"/>
+      <c r="B39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-    </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+    </row>
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="19">
         <v>3.0089250000000001</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="19">
         <v>2.9279329999999999</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="19">
         <v>2.9736419999999999</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>3.0516649999999998</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>3.1067629999999999</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="19">
         <v>3.1986150000000002</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="19">
         <v>3.258257</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="19">
         <v>3.308532</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="19">
         <v>3.3128340000000001</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="19">
         <v>3.3594469999999998</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="19">
         <v>3.386463</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="19">
         <v>3.4018489999999999</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="19">
         <v>3.4392649999999998</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="19">
         <v>3.4621189999999999</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="19">
         <v>3.50725</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="19">
         <v>3.536197</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="19">
         <v>3.565753</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="19">
         <v>3.599078</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="19">
         <v>3.6206960000000001</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="19">
         <v>3.6487599999999998</v>
       </c>
-      <c r="W40" s="18">
+      <c r="W40" s="19">
         <v>3.6803409999999999</v>
       </c>
-      <c r="X40" s="18">
+      <c r="X40" s="19">
         <v>3.6808369999999999</v>
       </c>
-      <c r="Y40" s="18">
+      <c r="Y40" s="19">
         <v>3.7069800000000002</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="19">
         <v>3.757476</v>
       </c>
-      <c r="AA40" s="18">
+      <c r="AA40" s="19">
         <v>3.781371</v>
       </c>
-      <c r="AB40" s="18">
+      <c r="AB40" s="19">
         <v>3.8072270000000001</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AC40" s="19">
         <v>3.8559950000000001</v>
       </c>
-      <c r="AD40" s="18">
+      <c r="AD40" s="19">
         <v>3.861999</v>
       </c>
-      <c r="AE40" s="18">
+      <c r="AE40" s="19">
         <v>3.8977580000000001</v>
       </c>
-      <c r="AF40" s="18">
+      <c r="AF40" s="19">
         <v>3.9353479999999998</v>
       </c>
-      <c r="AG40" s="18">
+      <c r="AG40" s="19">
         <v>3.9597630000000001</v>
       </c>
-      <c r="AH40" s="18">
+      <c r="AH40" s="19">
         <v>3.977589</v>
       </c>
-      <c r="AI40" s="19">
+      <c r="AI40" s="20">
         <v>9.044E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="19">
         <v>1.56E-4</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="19">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <v>1.5200000000000001E-4</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>1.5200000000000001E-4</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="19">
         <v>1.54E-4</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="19">
         <v>1.55E-4</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="19">
         <v>1.56E-4</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="19">
         <v>1.56E-4</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="19">
         <v>1.5699999999999999E-4</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="19">
         <v>1.5799999999999999E-4</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="19">
         <v>7.2499999999999995E-4</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="19">
         <v>7.2900000000000005E-4</v>
       </c>
-      <c r="P41" s="18">
+      <c r="P41" s="19">
         <v>7.3200000000000001E-4</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="Q41" s="19">
         <v>8.1599999999999999E-4</v>
       </c>
-      <c r="R41" s="18">
+      <c r="R41" s="19">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="S41" s="18">
+      <c r="S41" s="19">
         <v>8.2299999999999995E-4</v>
       </c>
-      <c r="T41" s="18">
+      <c r="T41" s="19">
         <v>8.2600000000000002E-4</v>
       </c>
-      <c r="U41" s="18">
+      <c r="U41" s="19">
         <v>8.2899999999999998E-4</v>
       </c>
-      <c r="V41" s="18">
+      <c r="V41" s="19">
         <v>8.3199999999999995E-4</v>
       </c>
-      <c r="W41" s="18">
+      <c r="W41" s="19">
         <v>8.3600000000000005E-4</v>
       </c>
-      <c r="X41" s="18">
+      <c r="X41" s="19">
         <v>8.3799999999999999E-4</v>
       </c>
-      <c r="Y41" s="18">
+      <c r="Y41" s="19">
         <v>8.4199999999999998E-4</v>
       </c>
-      <c r="Z41" s="18">
+      <c r="Z41" s="19">
         <v>8.4500000000000005E-4</v>
       </c>
-      <c r="AA41" s="18">
+      <c r="AA41" s="19">
         <v>8.4900000000000004E-4</v>
       </c>
-      <c r="AB41" s="18">
+      <c r="AB41" s="19">
         <v>8.5400000000000005E-4</v>
       </c>
-      <c r="AC41" s="18">
+      <c r="AC41" s="19">
         <v>8.5800000000000004E-4</v>
       </c>
-      <c r="AD41" s="18">
+      <c r="AD41" s="19">
         <v>8.6300000000000005E-4</v>
       </c>
-      <c r="AE41" s="18">
+      <c r="AE41" s="19">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="AF41" s="18">
+      <c r="AF41" s="19">
         <v>8.7399999999999999E-4</v>
       </c>
-      <c r="AG41" s="18">
+      <c r="AG41" s="19">
         <v>8.7900000000000001E-4</v>
       </c>
-      <c r="AH41" s="18">
+      <c r="AH41" s="19">
         <v>8.8500000000000004E-4</v>
       </c>
-      <c r="AI41" s="19">
+      <c r="AI41" s="20">
         <v>5.7688000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="19">
         <v>1.019304</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="19">
         <v>1.0231170000000001</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="19">
         <v>1.0211220000000001</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>1.0195920000000001</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>1.0182089999999999</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="19">
         <v>1.0167930000000001</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="19">
         <v>1.0153540000000001</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="19">
         <v>1.014176</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="19">
         <v>1.0131650000000001</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="19">
         <v>1.0120800000000001</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="19">
         <v>1.011009</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="19">
         <v>1.009943</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="19">
         <v>1.009061</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="19">
         <v>1.008013</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="19">
         <v>1.007036</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42" s="19">
         <v>1.005968</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S42" s="19">
         <v>1.004937</v>
       </c>
-      <c r="T42" s="18">
+      <c r="T42" s="19">
         <v>1.003806</v>
       </c>
-      <c r="U42" s="18">
+      <c r="U42" s="19">
         <v>1.0029669999999999</v>
       </c>
-      <c r="V42" s="18">
+      <c r="V42" s="19">
         <v>1.0016700000000001</v>
       </c>
-      <c r="W42" s="18">
+      <c r="W42" s="19">
         <v>1.0007060000000001</v>
       </c>
-      <c r="X42" s="18">
+      <c r="X42" s="19">
         <v>0.99941199999999997</v>
       </c>
-      <c r="Y42" s="18">
+      <c r="Y42" s="19">
         <v>0.99834800000000001</v>
       </c>
-      <c r="Z42" s="18">
+      <c r="Z42" s="19">
         <v>0.99720600000000004</v>
       </c>
-      <c r="AA42" s="18">
+      <c r="AA42" s="19">
         <v>0.99634299999999998</v>
       </c>
-      <c r="AB42" s="18">
+      <c r="AB42" s="19">
         <v>0.99479799999999996</v>
       </c>
-      <c r="AC42" s="18">
+      <c r="AC42" s="19">
         <v>0.99352399999999996</v>
       </c>
-      <c r="AD42" s="18">
+      <c r="AD42" s="19">
         <v>0.99223899999999998</v>
       </c>
-      <c r="AE42" s="18">
+      <c r="AE42" s="19">
         <v>0.99128799999999995</v>
       </c>
-      <c r="AF42" s="18">
+      <c r="AF42" s="19">
         <v>0.99009499999999995</v>
       </c>
-      <c r="AG42" s="18">
+      <c r="AG42" s="19">
         <v>0.98876500000000001</v>
       </c>
-      <c r="AH42" s="18">
+      <c r="AH42" s="19">
         <v>0.98726700000000001</v>
       </c>
-      <c r="AI42" s="19">
+      <c r="AI42" s="20">
         <v>-1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="19">
         <v>1.989465</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="19">
         <v>1.904663</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="19">
         <v>1.9523680000000001</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>2.0319199999999999</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>2.0884010000000002</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="19">
         <v>2.1816689999999999</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="19">
         <v>2.2427480000000002</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="19">
         <v>2.2942</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="19">
         <v>2.299512</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="19">
         <v>2.3472089999999999</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="19">
         <v>2.3752960000000001</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="19">
         <v>2.3911799999999999</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="19">
         <v>2.4294760000000002</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="19">
         <v>2.4533740000000002</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="19">
         <v>2.4993979999999998</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43" s="19">
         <v>2.5294099999999999</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="19">
         <v>2.559993</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="19">
         <v>2.5944470000000002</v>
       </c>
-      <c r="U43" s="18">
+      <c r="U43" s="19">
         <v>2.6168999999999998</v>
       </c>
-      <c r="V43" s="18">
+      <c r="V43" s="19">
         <v>2.646258</v>
       </c>
-      <c r="W43" s="18">
+      <c r="W43" s="19">
         <v>2.6787990000000002</v>
       </c>
-      <c r="X43" s="18">
+      <c r="X43" s="19">
         <v>2.6805870000000001</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="Y43" s="19">
         <v>2.7077909999999998</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="Z43" s="19">
         <v>2.7594249999999998</v>
       </c>
-      <c r="AA43" s="18">
+      <c r="AA43" s="19">
         <v>2.784179</v>
       </c>
-      <c r="AB43" s="18">
+      <c r="AB43" s="19">
         <v>2.8115749999999999</v>
       </c>
-      <c r="AC43" s="18">
+      <c r="AC43" s="19">
         <v>2.8616130000000002</v>
       </c>
-      <c r="AD43" s="18">
+      <c r="AD43" s="19">
         <v>2.868897</v>
       </c>
-      <c r="AE43" s="18">
+      <c r="AE43" s="19">
         <v>2.905602</v>
       </c>
-      <c r="AF43" s="18">
+      <c r="AF43" s="19">
         <v>2.9443790000000001</v>
       </c>
-      <c r="AG43" s="18">
+      <c r="AG43" s="19">
         <v>2.970119</v>
       </c>
-      <c r="AH43" s="18">
+      <c r="AH43" s="19">
         <v>2.9894370000000001</v>
       </c>
-      <c r="AI43" s="19">
+      <c r="AI43" s="20">
         <v>1.3223E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>1.5088569999999999</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="21">
         <v>1.392995</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="21">
         <v>1.4674339999999999</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="21">
         <v>1.523857</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="21">
         <v>1.5557529999999999</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="21">
         <v>1.5953200000000001</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="21">
         <v>1.636549</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="21">
         <v>1.6755150000000001</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="21">
         <v>1.7042980000000001</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="21">
         <v>1.7420659999999999</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="21">
         <v>1.7792460000000001</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="21">
         <v>1.8055129999999999</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="21">
         <v>1.842263</v>
       </c>
-      <c r="P45" s="20">
+      <c r="P45" s="21">
         <v>1.871977</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="21">
         <v>1.9166589999999999</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="21">
         <v>1.949471</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="21">
         <v>1.9839329999999999</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="21">
         <v>2.0208759999999999</v>
       </c>
-      <c r="U45" s="20">
+      <c r="U45" s="21">
         <v>2.0518049999999999</v>
       </c>
-      <c r="V45" s="20">
+      <c r="V45" s="21">
         <v>2.0866159999999998</v>
       </c>
-      <c r="W45" s="20">
+      <c r="W45" s="21">
         <v>2.1229209999999998</v>
       </c>
-      <c r="X45" s="20">
+      <c r="X45" s="21">
         <v>2.15429</v>
       </c>
-      <c r="Y45" s="20">
+      <c r="Y45" s="21">
         <v>2.1818590000000002</v>
       </c>
-      <c r="Z45" s="20">
+      <c r="Z45" s="21">
         <v>2.2311269999999999</v>
       </c>
-      <c r="AA45" s="20">
+      <c r="AA45" s="21">
         <v>2.2593890000000001</v>
       </c>
-      <c r="AB45" s="20">
+      <c r="AB45" s="21">
         <v>2.2930069999999998</v>
       </c>
-      <c r="AC45" s="20">
+      <c r="AC45" s="21">
         <v>2.3276729999999999</v>
       </c>
-      <c r="AD45" s="20">
+      <c r="AD45" s="21">
         <v>2.3577379999999999</v>
       </c>
-      <c r="AE45" s="20">
+      <c r="AE45" s="21">
         <v>2.3983889999999999</v>
       </c>
-      <c r="AF45" s="20">
+      <c r="AF45" s="21">
         <v>2.4366279999999998</v>
       </c>
-      <c r="AG45" s="20">
+      <c r="AG45" s="21">
         <v>2.4713949999999998</v>
       </c>
-      <c r="AH45" s="20">
+      <c r="AH45" s="21">
         <v>2.4996149999999999</v>
       </c>
-      <c r="AI45" s="21">
+      <c r="AI45" s="22">
         <v>1.6417000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="21">
         <v>1.339548</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="21">
         <v>1.265161</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="21">
         <v>1.386474</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="21">
         <v>1.4199790000000001</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="21">
         <v>1.4477519999999999</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="21">
         <v>1.5000800000000001</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="21">
         <v>1.537094</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="21">
         <v>1.576044</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="21">
         <v>1.613683</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="21">
         <v>1.631726</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="21">
         <v>1.6682840000000001</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="21">
         <v>1.6985429999999999</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="21">
         <v>1.7385679999999999</v>
       </c>
-      <c r="P46" s="20">
+      <c r="P46" s="21">
         <v>1.7588820000000001</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="Q46" s="21">
         <v>1.823334</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="21">
         <v>1.852679</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="21">
         <v>1.8894219999999999</v>
       </c>
-      <c r="T46" s="20">
+      <c r="T46" s="21">
         <v>1.9385699999999999</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="21">
         <v>1.9477279999999999</v>
       </c>
-      <c r="V46" s="20">
+      <c r="V46" s="21">
         <v>1.984251</v>
       </c>
-      <c r="W46" s="20">
+      <c r="W46" s="21">
         <v>2.0187740000000001</v>
       </c>
-      <c r="X46" s="20">
+      <c r="X46" s="21">
         <v>2.0413589999999999</v>
       </c>
-      <c r="Y46" s="20">
+      <c r="Y46" s="21">
         <v>2.0654170000000001</v>
       </c>
-      <c r="Z46" s="20">
+      <c r="Z46" s="21">
         <v>2.11965</v>
       </c>
-      <c r="AA46" s="20">
+      <c r="AA46" s="21">
         <v>2.1457269999999999</v>
       </c>
-      <c r="AB46" s="20">
+      <c r="AB46" s="21">
         <v>2.176221</v>
       </c>
-      <c r="AC46" s="20">
+      <c r="AC46" s="21">
         <v>2.2226669999999999</v>
       </c>
-      <c r="AD46" s="20">
+      <c r="AD46" s="21">
         <v>2.2393049999999999</v>
       </c>
-      <c r="AE46" s="20">
+      <c r="AE46" s="21">
         <v>2.2956180000000002</v>
       </c>
-      <c r="AF46" s="20">
+      <c r="AF46" s="21">
         <v>2.338946</v>
       </c>
-      <c r="AG46" s="20">
+      <c r="AG46" s="21">
         <v>2.3741219999999998</v>
       </c>
-      <c r="AH46" s="20">
+      <c r="AH46" s="21">
         <v>2.398177</v>
       </c>
-      <c r="AI46" s="21">
+      <c r="AI46" s="22">
         <v>1.8964000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="24" t="s">
+    <row r="47" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+    </row>
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
-    </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="8"/>
     </row>
   </sheetData>
@@ -5106,2274 +5066,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220DFA0-66CB-48DD-AACC-21EFB8999F18}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>2050</v>
-      </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="1">
@@ -7475,7 +5184,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -7608,7 +5317,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -7741,7 +5450,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +5583,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -8007,7 +5716,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8209,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -8310,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -8443,7 +6152,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -8543,42 +6252,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1705261468960152</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16791661597171478</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16541707846687681</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16209069177489394</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1605150302613694</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15657490002809571</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15368864291520273</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1513354048711453</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14922871309453889</v>
       </c>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -8678,42 +6387,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15715208233420089</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15490596009060917</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15240428476562257</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14895151464839695</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14777544261237055</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14518374827080111</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AE11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14276908795378282</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14078183293932509</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AG11" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.13893488595694672</v>
       </c>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -8722,7 +6431,7 @@
         <v>0.2568005159971371</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12:AG12" si="1">C10</f>
+        <f t="shared" ref="C12:AI12" si="1">C10</f>
         <v>0.25713525168619367</v>
       </c>
       <c r="D12" s="5">
@@ -8813,42 +6522,42 @@
         <f t="shared" si="1"/>
         <v>0.1705261468960152</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="10">
         <f t="shared" si="1"/>
         <v>0.16791661597171478</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="10">
         <f t="shared" si="1"/>
         <v>0.16541707846687681</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="10">
         <f t="shared" si="1"/>
         <v>0.16209069177489394</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="10">
         <f t="shared" si="1"/>
         <v>0.1605150302613694</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="10">
         <f t="shared" si="1"/>
         <v>0.15657490002809571</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="10">
         <f t="shared" si="1"/>
         <v>0.15368864291520273</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="10">
         <f t="shared" si="1"/>
         <v>0.1513354048711453</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="10">
         <f t="shared" si="1"/>
         <v>0.14922871309453889</v>
       </c>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -8857,7 +6566,7 @@
         <v>0.24136121635119143</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:AG13" si="3">C11</f>
+        <f t="shared" ref="C13:AI13" si="3">C11</f>
         <v>0.24915074581119739</v>
       </c>
       <c r="D13" s="5">
@@ -8948,42 +6657,42 @@
         <f t="shared" si="3"/>
         <v>0.15715208233420089</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="10">
         <f t="shared" si="3"/>
         <v>0.15490596009060917</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="10">
         <f t="shared" si="3"/>
         <v>0.15240428476562257</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="10">
         <f t="shared" si="3"/>
         <v>0.14895151464839695</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AC13" s="10">
         <f t="shared" si="3"/>
         <v>0.14777544261237055</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="10">
         <f t="shared" si="3"/>
         <v>0.14518374827080111</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AE13" s="10">
         <f t="shared" si="3"/>
         <v>0.14276908795378282</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AF13" s="10">
         <f t="shared" si="3"/>
         <v>0.14078183293932509</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AG13" s="10">
         <f t="shared" si="3"/>
         <v>0.13893488595694672</v>
       </c>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -9083,42 +6792,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>4.0451296334577259E-2</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.9833688719028017E-2</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.9172579156626912E-2</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.8164586987121454E-2</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.7887617073266502E-2</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.6923287864025892E-2</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AE14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.6133272271252598E-2</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AF14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.5529363589494371E-2</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="10">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.5202611114073468E-2</v>
       </c>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -9251,7 +6960,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -9352,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -9485,7 +7194,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -9586,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -9687,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -9820,7 +7529,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -9953,7 +7662,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
